--- a/CeC - API Véhicule - V1.9.xlsx
+++ b/CeC - API Véhicule - V1.9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\COURSE EN COURS\PRIT006403 - Véhicule v1.0\1- CDC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_cours\2nde\CITEC\CeC\_cec 2019\CeC AC Caen 23-01-2020\cec-arduino\CeC_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BC53CB-5051-4A97-9F7B-1EBFD8F2BB2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23381B74-B421-49CC-9902-3252EDA7CA96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2490" yWindow="2130" windowWidth="8700" windowHeight="11385" tabRatio="831" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="13" r:id="rId1"/>
@@ -3436,7 +3436,7 @@
   </sheetPr>
   <dimension ref="D11:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -4685,7 +4685,7 @@
   <dimension ref="B3:L42"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5106,7 +5106,7 @@
   </sheetPr>
   <dimension ref="C3:V21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y39" sqref="Y39"/>
     </sheetView>
   </sheetViews>
@@ -5366,7 +5366,7 @@
   <dimension ref="C3:D28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5448,7 +5448,7 @@
   </sheetPr>
   <dimension ref="B3:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -5849,7 +5849,7 @@
   <dimension ref="C5:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6286,8 +6286,8 @@
   </sheetPr>
   <dimension ref="B3:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10268,18 +10268,18 @@
     <row r="96" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C78:C93"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C71"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:C77"/>
     <mergeCell ref="C33:C48"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C26"/>
     <mergeCell ref="C30:H30"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C78:C93"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C71"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:C77"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/CeC - API Véhicule - V1.9.xlsx
+++ b/CeC - API Véhicule - V1.9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_cours\2nde\CITEC\CeC\_cec 2019\CeC AC Caen 23-01-2020\cec-arduino\CeC_arduino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_cours\2nde\CITEC\CeC\_cec 2019\CeC AC Caen 23-01-2020\cec-arduino\cec-arduino-git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23381B74-B421-49CC-9902-3252EDA7CA96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F82A09-B89E-4D27-9E13-C7146967BF5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2490" yWindow="2130" windowWidth="8700" windowHeight="11385" tabRatio="831" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="831" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="13" r:id="rId1"/>
@@ -1784,7 +1784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2098,6 +2098,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3557,8 +3566,8 @@
   </sheetPr>
   <dimension ref="C8:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5849,7 +5858,7 @@
   <dimension ref="C5:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5951,8 +5960,8 @@
   </sheetPr>
   <dimension ref="B5:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6099,7 +6108,7 @@
   <dimension ref="B8:E22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6286,8 +6295,8 @@
   </sheetPr>
   <dimension ref="B3:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6642,7 +6651,7 @@
       <c r="D23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="112" t="s">
         <v>67</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -6661,7 +6670,7 @@
       <c r="D24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="112" t="s">
         <v>67</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -8119,8 +8128,8 @@
   </sheetPr>
   <dimension ref="B3:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8269,7 +8278,7 @@
       <c r="D11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="112" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -8289,7 +8298,7 @@
       <c r="D12" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="112" t="s">
         <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -8912,19 +8921,20 @@
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="C8:H96"/>
+  <dimension ref="C8:O96"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="35.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="93" t="s">
         <v>61</v>
       </c>
@@ -8933,8 +8943,16 @@
       <c r="F8" s="93"/>
       <c r="G8" s="93"/>
       <c r="H8" s="93"/>
-    </row>
-    <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+    </row>
+    <row r="9" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="90" t="s">
         <v>0</v>
       </c>
@@ -8949,8 +8967,22 @@
       <c r="H9" s="10" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <v>7</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10">
+        <v>4</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="91"/>
       <c r="D10" s="11" t="s">
         <v>376</v>
@@ -8967,8 +8999,24 @@
       <c r="H10" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="91"/>
+      <c r="K10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="90">
         <v>7</v>
       </c>
@@ -8987,8 +9035,26 @@
       <c r="H11" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="90">
+        <v>7</v>
+      </c>
+      <c r="K11" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="N11" s="114">
+        <v>1</v>
+      </c>
+      <c r="O11" s="113" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="92"/>
       <c r="D12" s="6" t="s">
         <v>118</v>
@@ -9005,8 +9071,24 @@
       <c r="H12" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="92"/>
+      <c r="K12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="92"/>
       <c r="D13" s="6" t="s">
         <v>118</v>
@@ -9023,8 +9105,24 @@
       <c r="H13" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="92"/>
+      <c r="K13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="92"/>
       <c r="D14" s="6" t="s">
         <v>118</v>
@@ -9041,8 +9139,24 @@
       <c r="H14" s="7" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="15" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="92"/>
+      <c r="K14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="92"/>
       <c r="D15" s="6" t="s">
         <v>118</v>
@@ -9059,8 +9173,24 @@
       <c r="H15" s="7" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="16" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="92"/>
+      <c r="K15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="92"/>
       <c r="D16" s="6">
         <v>1</v>
@@ -9074,11 +9204,27 @@
       <c r="G16" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="113" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="17" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="92"/>
+      <c r="K16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="92"/>
       <c r="D17" s="5" t="s">
         <v>118</v>
@@ -9095,8 +9241,24 @@
       <c r="H17" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="92"/>
+      <c r="K17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="92"/>
       <c r="D18" s="5" t="s">
         <v>118</v>
@@ -9113,8 +9275,24 @@
       <c r="H18" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="92"/>
+      <c r="K18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="92"/>
       <c r="D19" s="5" t="s">
         <v>118</v>
@@ -9131,8 +9309,24 @@
       <c r="H19" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="92"/>
+      <c r="K19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="92"/>
       <c r="D20" s="5" t="s">
         <v>118</v>
@@ -9149,8 +9343,24 @@
       <c r="H20" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="92"/>
+      <c r="K20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="92"/>
       <c r="D21" s="5" t="s">
         <v>118</v>
@@ -9167,8 +9377,24 @@
       <c r="H21" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="92"/>
+      <c r="K21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="92"/>
       <c r="D22" s="5" t="s">
         <v>118</v>
@@ -9185,8 +9411,24 @@
       <c r="H22" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="92"/>
+      <c r="K22" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="92"/>
       <c r="D23" s="5" t="s">
         <v>118</v>
@@ -9203,8 +9445,24 @@
       <c r="H23" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="92"/>
+      <c r="K23" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="92"/>
       <c r="D24" s="5" t="s">
         <v>118</v>
@@ -9221,8 +9479,24 @@
       <c r="H24" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="92"/>
+      <c r="K24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="92"/>
       <c r="D25" s="5" t="s">
         <v>118</v>
@@ -9239,8 +9513,24 @@
       <c r="H25" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="92"/>
+      <c r="K25" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="91"/>
       <c r="D26" s="5" t="s">
         <v>118</v>
@@ -9257,72 +9547,144 @@
       <c r="H26" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="91"/>
+      <c r="K26" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="93" t="s">
-        <v>61</v>
+        <v>230</v>
       </c>
       <c r="D30" s="93"/>
       <c r="E30" s="93"/>
       <c r="F30" s="93"/>
       <c r="G30" s="93"/>
       <c r="H30" s="93"/>
-    </row>
-    <row r="31" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+    </row>
+    <row r="31" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="90" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="32" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="10">
+        <v>7</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10">
+        <v>4</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="91"/>
-      <c r="D32" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="21" t="s">
+      <c r="D32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="91"/>
+      <c r="K32" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="90">
-        <v>7</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>118</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>118</v>
       </c>
       <c r="G33" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="J33" s="90">
+        <v>8</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="92"/>
       <c r="D34" s="5" t="s">
         <v>118</v>
@@ -9330,17 +9692,33 @@
       <c r="E34" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="J34" s="92"/>
+      <c r="K34" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="92"/>
       <c r="D35" s="5" t="s">
         <v>118</v>
@@ -9348,17 +9726,33 @@
       <c r="E35" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="J35" s="92"/>
+      <c r="K35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="92"/>
       <c r="D36" s="5" t="s">
         <v>118</v>
@@ -9366,17 +9760,33 @@
       <c r="E36" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J36" s="92"/>
+      <c r="K36" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="92"/>
       <c r="D37" s="5" t="s">
         <v>118</v>
@@ -9393,8 +9803,24 @@
       <c r="H37" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="92"/>
+      <c r="K37" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="92"/>
       <c r="D38" s="5" t="s">
         <v>118</v>
@@ -9411,8 +9837,24 @@
       <c r="H38" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="92"/>
+      <c r="K38" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="92"/>
       <c r="D39" s="5" t="s">
         <v>118</v>
@@ -9429,8 +9871,24 @@
       <c r="H39" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="92"/>
+      <c r="K39" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="92"/>
       <c r="D40" s="5" t="s">
         <v>118</v>
@@ -9447,8 +9905,24 @@
       <c r="H40" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J40" s="92"/>
+      <c r="K40" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="92"/>
       <c r="D41" s="5" t="s">
         <v>118</v>
@@ -9465,8 +9939,24 @@
       <c r="H41" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="92"/>
+      <c r="K41" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="92"/>
       <c r="D42" s="5" t="s">
         <v>118</v>
@@ -9483,8 +9973,24 @@
       <c r="H42" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="92"/>
+      <c r="K42" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="92"/>
       <c r="D43" s="5" t="s">
         <v>118</v>
@@ -9501,8 +10007,24 @@
       <c r="H43" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="92"/>
+      <c r="K43" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="92"/>
       <c r="D44" s="5" t="s">
         <v>118</v>
@@ -9519,8 +10041,24 @@
       <c r="H44" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="92"/>
+      <c r="K44" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="92"/>
       <c r="D45" s="5" t="s">
         <v>118</v>
@@ -9537,8 +10075,24 @@
       <c r="H45" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J45" s="92"/>
+      <c r="K45" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="92"/>
       <c r="D46" s="5" t="s">
         <v>118</v>
@@ -9555,8 +10109,24 @@
       <c r="H46" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="92"/>
+      <c r="K46" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="92"/>
       <c r="D47" s="5" t="s">
         <v>118</v>
@@ -9573,8 +10143,24 @@
       <c r="H47" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="92"/>
+      <c r="K47" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="91"/>
       <c r="D48" s="5" t="s">
         <v>118</v>
@@ -9591,695 +10177,81 @@
       <c r="H48" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="93" t="s">
-        <v>230</v>
-      </c>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="93"/>
-    </row>
-    <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="10">
-        <v>3</v>
-      </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10">
-        <v>0</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="91"/>
-      <c r="D55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="90">
-        <v>8</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G56" s="6">
-        <v>0</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="92"/>
-      <c r="D57" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G57" s="6">
-        <v>1</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="92"/>
-      <c r="D58" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F58" s="6">
-        <v>0</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="92"/>
-      <c r="D59" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F59" s="6">
-        <v>1</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="92"/>
-      <c r="D60" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="92"/>
-      <c r="D61" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="92"/>
-      <c r="D62" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="92"/>
-      <c r="D63" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="92"/>
-      <c r="D64" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="92"/>
-      <c r="D65" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="92"/>
-      <c r="D66" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="92"/>
-      <c r="D67" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="92"/>
-      <c r="D68" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="92"/>
-      <c r="D69" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="92"/>
-      <c r="D70" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="91"/>
-      <c r="D71" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="93" t="s">
-        <v>230</v>
-      </c>
-      <c r="D75" s="93"/>
-      <c r="E75" s="93"/>
-      <c r="F75" s="93"/>
-      <c r="G75" s="93"/>
-      <c r="H75" s="93"/>
-    </row>
-    <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" s="10">
-        <v>7</v>
-      </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10">
-        <v>4</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="91"/>
-      <c r="D77" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="90">
-        <v>8</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="92"/>
-      <c r="D79" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="92"/>
-      <c r="D80" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="92"/>
-      <c r="D81" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="92"/>
-      <c r="D82" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="92"/>
-      <c r="D83" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="92"/>
-      <c r="D84" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="92"/>
-      <c r="D85" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="92"/>
-      <c r="D86" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="92"/>
-      <c r="D87" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="92"/>
-      <c r="D88" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="92"/>
-      <c r="D89" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="92"/>
-      <c r="D90" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="92"/>
-      <c r="D91" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="92"/>
-      <c r="D92" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="91"/>
-      <c r="D93" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C78:C93"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C71"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C33:C48"/>
+    <mergeCell ref="J11:J26"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C26"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J33:J48"/>
     <mergeCell ref="C30:H30"/>
     <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C48"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="J31:J32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -10294,7 +10266,7 @@
   <dimension ref="B3:H20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CeC - API Véhicule - V1.9.xlsx
+++ b/CeC - API Véhicule - V1.9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_cours\2nde\CITEC\CeC\_cec 2019\CeC AC Caen 23-01-2020\cec-arduino\cec-arduino-git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F82A09-B89E-4D27-9E13-C7146967BF5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49899B8-E399-4B49-9DA2-5CEDB7D74E3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="831" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="831" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="13" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="Trame - Test" sheetId="18" r:id="rId14"/>
     <sheet name="Trame correspondance - Test" sheetId="17" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,6 +37,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1985,6 +1986,15 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2098,15 +2108,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3445,8 +3446,8 @@
   </sheetPr>
   <dimension ref="D11:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3578,17 +3579,17 @@
   </cols>
   <sheetData>
     <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
     </row>
     <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="93" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -3604,7 +3605,7 @@
       </c>
     </row>
     <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="91"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="11" t="s">
         <v>12</v>
       </c>
@@ -3620,13 +3621,13 @@
       <c r="H10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="99" t="s">
+      <c r="K10" s="102" t="s">
         <v>222</v>
       </c>
-      <c r="L10" s="100"/>
+      <c r="L10" s="103"/>
     </row>
     <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="90">
+      <c r="C11" s="93">
         <v>0</v>
       </c>
       <c r="D11" s="6">
@@ -3652,7 +3653,7 @@
       </c>
     </row>
     <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="92"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="6">
         <v>0</v>
       </c>
@@ -3676,7 +3677,7 @@
       </c>
     </row>
     <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="92"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="6">
         <v>0</v>
       </c>
@@ -3700,7 +3701,7 @@
       </c>
     </row>
     <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="92"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="6">
         <v>0</v>
       </c>
@@ -3724,7 +3725,7 @@
       </c>
     </row>
     <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="92"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="6">
         <v>0</v>
       </c>
@@ -3748,7 +3749,7 @@
       </c>
     </row>
     <row r="16" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="92"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="6" t="s">
         <v>118</v>
       </c>
@@ -3772,7 +3773,7 @@
       </c>
     </row>
     <row r="17" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="92"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="6" t="s">
         <v>118</v>
       </c>
@@ -3790,7 +3791,7 @@
       </c>
     </row>
     <row r="18" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="92"/>
+      <c r="C18" s="95"/>
       <c r="D18" s="6">
         <v>1</v>
       </c>
@@ -3808,7 +3809,7 @@
       </c>
     </row>
     <row r="19" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="92"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="5" t="s">
         <v>118</v>
       </c>
@@ -3826,7 +3827,7 @@
       </c>
     </row>
     <row r="20" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="92"/>
+      <c r="C20" s="95"/>
       <c r="D20" s="5" t="s">
         <v>118</v>
       </c>
@@ -3844,7 +3845,7 @@
       </c>
     </row>
     <row r="21" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="92"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="5" t="s">
         <v>118</v>
       </c>
@@ -3862,7 +3863,7 @@
       </c>
     </row>
     <row r="22" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="92"/>
+      <c r="C22" s="95"/>
       <c r="D22" s="5" t="s">
         <v>118</v>
       </c>
@@ -3880,7 +3881,7 @@
       </c>
     </row>
     <row r="23" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="92"/>
+      <c r="C23" s="95"/>
       <c r="D23" s="5" t="s">
         <v>118</v>
       </c>
@@ -3900,7 +3901,7 @@
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="92"/>
+      <c r="C24" s="95"/>
       <c r="D24" s="5" t="s">
         <v>118</v>
       </c>
@@ -3920,7 +3921,7 @@
       <c r="L24" s="53"/>
     </row>
     <row r="25" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="91"/>
+      <c r="C25" s="94"/>
       <c r="D25" s="5" t="s">
         <v>118</v>
       </c>
@@ -3948,19 +3949,19 @@
       <c r="L27" s="53"/>
     </row>
     <row r="28" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="94" t="s">
+      <c r="C28" s="97" t="s">
         <v>280</v>
       </c>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="102"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="105"/>
       <c r="K28" s="1"/>
       <c r="L28" s="53"/>
     </row>
     <row r="29" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="90" t="s">
+      <c r="C29" s="93" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="10" t="s">
@@ -3976,7 +3977,7 @@
       </c>
     </row>
     <row r="30" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="91"/>
+      <c r="C30" s="94"/>
       <c r="D30" s="11" t="s">
         <v>12</v>
       </c>
@@ -3994,7 +3995,7 @@
       </c>
     </row>
     <row r="31" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="90">
+      <c r="C31" s="93">
         <v>0</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -4014,7 +4015,7 @@
       </c>
     </row>
     <row r="32" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="92"/>
+      <c r="C32" s="95"/>
       <c r="D32" s="5" t="s">
         <v>118</v>
       </c>
@@ -4032,7 +4033,7 @@
       </c>
     </row>
     <row r="33" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="92"/>
+      <c r="C33" s="95"/>
       <c r="D33" s="5" t="s">
         <v>118</v>
       </c>
@@ -4050,7 +4051,7 @@
       </c>
     </row>
     <row r="34" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="92"/>
+      <c r="C34" s="95"/>
       <c r="D34" s="5" t="s">
         <v>118</v>
       </c>
@@ -4068,7 +4069,7 @@
       </c>
     </row>
     <row r="35" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="92"/>
+      <c r="C35" s="95"/>
       <c r="D35" s="5" t="s">
         <v>118</v>
       </c>
@@ -4086,7 +4087,7 @@
       </c>
     </row>
     <row r="36" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="92"/>
+      <c r="C36" s="95"/>
       <c r="D36" s="5" t="s">
         <v>118</v>
       </c>
@@ -4104,7 +4105,7 @@
       </c>
     </row>
     <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="92"/>
+      <c r="C37" s="95"/>
       <c r="D37" s="5" t="s">
         <v>118</v>
       </c>
@@ -4122,7 +4123,7 @@
       </c>
     </row>
     <row r="38" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="92"/>
+      <c r="C38" s="95"/>
       <c r="D38" s="5" t="s">
         <v>118</v>
       </c>
@@ -4140,7 +4141,7 @@
       </c>
     </row>
     <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="92"/>
+      <c r="C39" s="95"/>
       <c r="D39" s="5" t="s">
         <v>118</v>
       </c>
@@ -4158,7 +4159,7 @@
       </c>
     </row>
     <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="92"/>
+      <c r="C40" s="95"/>
       <c r="D40" s="5" t="s">
         <v>118</v>
       </c>
@@ -4176,7 +4177,7 @@
       </c>
     </row>
     <row r="41" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="92"/>
+      <c r="C41" s="95"/>
       <c r="D41" s="5" t="s">
         <v>118</v>
       </c>
@@ -4194,7 +4195,7 @@
       </c>
     </row>
     <row r="42" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="92"/>
+      <c r="C42" s="95"/>
       <c r="D42" s="5" t="s">
         <v>118</v>
       </c>
@@ -4212,7 +4213,7 @@
       </c>
     </row>
     <row r="43" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="92"/>
+      <c r="C43" s="95"/>
       <c r="D43" s="5" t="s">
         <v>118</v>
       </c>
@@ -4230,7 +4231,7 @@
       </c>
     </row>
     <row r="44" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="92"/>
+      <c r="C44" s="95"/>
       <c r="D44" s="5" t="s">
         <v>118</v>
       </c>
@@ -4248,7 +4249,7 @@
       </c>
     </row>
     <row r="45" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="92"/>
+      <c r="C45" s="95"/>
       <c r="D45" s="5" t="s">
         <v>118</v>
       </c>
@@ -4266,7 +4267,7 @@
       </c>
     </row>
     <row r="46" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="91"/>
+      <c r="C46" s="94"/>
       <c r="D46" s="5" t="s">
         <v>118</v>
       </c>
@@ -4309,8 +4310,8 @@
   </sheetPr>
   <dimension ref="B3:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4323,14 +4324,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
     </row>
     <row r="5" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
@@ -4644,14 +4645,14 @@
     <row r="23" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="89"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="92"/>
     </row>
     <row r="26" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4709,14 +4710,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="87" t="s">
         <v>307</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
     </row>
     <row r="5" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
@@ -4817,10 +4818,10 @@
       <c r="H9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="99" t="s">
+      <c r="K9" s="102" t="s">
         <v>386</v>
       </c>
-      <c r="L9" s="100"/>
+      <c r="L9" s="103"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="29" t="s">
@@ -4984,10 +4985,10 @@
       <c r="H17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="99" t="s">
+      <c r="K17" s="102" t="s">
         <v>387</v>
       </c>
-      <c r="L17" s="100"/>
+      <c r="L17" s="103"/>
     </row>
     <row r="18" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="29" t="s">
@@ -5050,14 +5051,14 @@
       </c>
     </row>
     <row r="22" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="89"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
       <c r="K22" s="57" t="s">
         <v>216</v>
       </c>
@@ -5116,7 +5117,7 @@
   <dimension ref="C3:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y39" sqref="Y39"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5125,27 +5126,27 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="106"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="109"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D8" s="2">
@@ -5188,13 +5189,13 @@
         <v>32</v>
       </c>
       <c r="Q8" s="24"/>
-      <c r="R8" s="107" t="s">
+      <c r="R8" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="109"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="112"/>
     </row>
     <row r="9" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D9" s="18"/>
@@ -5260,13 +5261,13 @@
         <v>65</v>
       </c>
       <c r="Q10" s="24"/>
-      <c r="R10" s="107" t="s">
+      <c r="R10" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="109"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="112"/>
     </row>
     <row r="11" spans="3:22" x14ac:dyDescent="0.25">
       <c r="Q11" s="24"/>
@@ -5290,13 +5291,13 @@
       <c r="O12" s="19"/>
       <c r="P12" s="27"/>
       <c r="Q12" s="24"/>
-      <c r="R12" s="107" t="s">
+      <c r="R12" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="109"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="112"/>
     </row>
     <row r="13" spans="3:22" x14ac:dyDescent="0.25">
       <c r="G13" s="22" t="s">
@@ -5311,47 +5312,47 @@
     </row>
     <row r="19" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D19" s="25"/>
-      <c r="F19" s="103" t="s">
+      <c r="F19" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="103"/>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="103"/>
-      <c r="S19" s="103"/>
-      <c r="T19" s="103"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="103"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
+      <c r="S19" s="106"/>
+      <c r="T19" s="106"/>
+      <c r="U19" s="106"/>
+      <c r="V19" s="106"/>
     </row>
     <row r="21" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D21" s="26"/>
-      <c r="F21" s="103" t="s">
+      <c r="F21" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="103"/>
-      <c r="S21" s="103"/>
-      <c r="T21" s="103"/>
-      <c r="U21" s="103"/>
-      <c r="V21" s="103"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="106"/>
+      <c r="R21" s="106"/>
+      <c r="S21" s="106"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5385,10 +5386,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="113" t="s">
         <v>374</v>
       </c>
-      <c r="D3" s="111"/>
+      <c r="D3" s="114"/>
     </row>
     <row r="5" spans="3:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
@@ -5457,8 +5458,8 @@
   </sheetPr>
   <dimension ref="B3:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5471,14 +5472,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="113" t="s">
         <v>341</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
     </row>
     <row r="5" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
@@ -5808,14 +5809,14 @@
     <row r="23" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="89"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="92"/>
     </row>
     <row r="26" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5858,7 +5859,7 @@
   <dimension ref="C5:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5869,11 +5870,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
     </row>
     <row r="7" spans="3:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
@@ -5960,8 +5961,8 @@
   </sheetPr>
   <dimension ref="B5:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5973,10 +5974,10 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="76"/>
+      <c r="D5" s="79"/>
     </row>
     <row r="7" spans="2:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
@@ -6003,7 +6004,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="80" t="s">
         <v>220</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -6014,7 +6015,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="77"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="14" t="s">
         <v>76</v>
       </c>
@@ -6023,7 +6024,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="77"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="14" t="s">
         <v>77</v>
       </c>
@@ -6032,7 +6033,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="77"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="14" t="s">
         <v>81</v>
       </c>
@@ -6065,10 +6066,10 @@
       </c>
     </row>
     <row r="19" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="81" t="s">
         <v>383</v>
       </c>
-      <c r="D19" s="79"/>
+      <c r="D19" s="82"/>
     </row>
     <row r="20" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="70" t="s">
@@ -6108,7 +6109,7 @@
   <dimension ref="B8:E22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6120,12 +6121,12 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="76"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="79"/>
     </row>
     <row r="10" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="54" t="s">
@@ -6142,7 +6143,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="83" t="s">
         <v>215</v>
       </c>
       <c r="C11" s="67" t="s">
@@ -6156,7 +6157,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="81"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="64" t="s">
         <v>138</v>
       </c>
@@ -6168,7 +6169,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="81"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="64" t="s">
         <v>143</v>
       </c>
@@ -6180,7 +6181,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="81"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="33" t="s">
         <v>139</v>
       </c>
@@ -6192,7 +6193,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="81"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="36" t="s">
         <v>140</v>
       </c>
@@ -6204,7 +6205,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="81"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="36" t="s">
         <v>305</v>
       </c>
@@ -6216,7 +6217,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="81"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="36" t="s">
         <v>306</v>
       </c>
@@ -6228,7 +6229,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="81"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="61" t="s">
         <v>340</v>
       </c>
@@ -6240,19 +6241,19 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="81"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="44"/>
       <c r="D19" s="45"/>
       <c r="E19" s="46"/>
     </row>
     <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="81"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="44"/>
       <c r="D20" s="45"/>
       <c r="E20" s="46"/>
     </row>
     <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="81"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="39" t="s">
         <v>150</v>
       </c>
@@ -6264,7 +6265,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="82"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="42" t="s">
         <v>151</v>
       </c>
@@ -6295,8 +6296,8 @@
   </sheetPr>
   <dimension ref="B3:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6309,14 +6310,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
     </row>
     <row r="5" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
@@ -6651,7 +6652,7 @@
       <c r="D23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="112" t="s">
+      <c r="E23" s="74" t="s">
         <v>67</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -6670,7 +6671,7 @@
       <c r="D24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="112" t="s">
+      <c r="E24" s="74" t="s">
         <v>67</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -6791,14 +6792,14 @@
       <c r="H35" s="2"/>
     </row>
     <row r="38" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="87" t="s">
+      <c r="C38" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="89"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6820,8 +6821,8 @@
   </sheetPr>
   <dimension ref="C5:H87"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6831,17 +6832,17 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
     </row>
     <row r="6" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="93" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -6857,7 +6858,7 @@
       </c>
     </row>
     <row r="7" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="91"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
@@ -6875,7 +6876,7 @@
       </c>
     </row>
     <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="90">
+      <c r="C8" s="93">
         <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -6895,7 +6896,7 @@
       </c>
     </row>
     <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="92"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="5" t="s">
         <v>118</v>
       </c>
@@ -6913,7 +6914,7 @@
       </c>
     </row>
     <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="92"/>
+      <c r="C10" s="95"/>
       <c r="D10" s="5" t="s">
         <v>118</v>
       </c>
@@ -6931,7 +6932,7 @@
       </c>
     </row>
     <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="92"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="5" t="s">
         <v>118</v>
       </c>
@@ -6949,7 +6950,7 @@
       </c>
     </row>
     <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="92"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="5" t="s">
         <v>118</v>
       </c>
@@ -6967,7 +6968,7 @@
       </c>
     </row>
     <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="92"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="5" t="s">
         <v>118</v>
       </c>
@@ -6985,7 +6986,7 @@
       </c>
     </row>
     <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="92"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="5" t="s">
         <v>118</v>
       </c>
@@ -7003,7 +7004,7 @@
       </c>
     </row>
     <row r="15" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="92"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="5" t="s">
         <v>118</v>
       </c>
@@ -7021,7 +7022,7 @@
       </c>
     </row>
     <row r="16" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="92"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="5" t="s">
         <v>118</v>
       </c>
@@ -7039,7 +7040,7 @@
       </c>
     </row>
     <row r="17" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="92"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="5" t="s">
         <v>118</v>
       </c>
@@ -7057,7 +7058,7 @@
       </c>
     </row>
     <row r="18" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="92"/>
+      <c r="C18" s="95"/>
       <c r="D18" s="5" t="s">
         <v>118</v>
       </c>
@@ -7075,7 +7076,7 @@
       </c>
     </row>
     <row r="19" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="92"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="5" t="s">
         <v>118</v>
       </c>
@@ -7093,7 +7094,7 @@
       </c>
     </row>
     <row r="20" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="92"/>
+      <c r="C20" s="95"/>
       <c r="D20" s="5" t="s">
         <v>118</v>
       </c>
@@ -7111,7 +7112,7 @@
       </c>
     </row>
     <row r="21" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="92"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="5" t="s">
         <v>118</v>
       </c>
@@ -7129,7 +7130,7 @@
       </c>
     </row>
     <row r="22" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="92"/>
+      <c r="C22" s="95"/>
       <c r="D22" s="5" t="s">
         <v>118</v>
       </c>
@@ -7147,7 +7148,7 @@
       </c>
     </row>
     <row r="23" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="91"/>
+      <c r="C23" s="94"/>
       <c r="D23" s="5" t="s">
         <v>118</v>
       </c>
@@ -7165,17 +7166,17 @@
       </c>
     </row>
     <row r="26" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="93" t="s">
+      <c r="C26" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
     </row>
     <row r="27" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="90" t="s">
+      <c r="C27" s="93" t="s">
         <v>0</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -7191,7 +7192,7 @@
       </c>
     </row>
     <row r="28" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="91"/>
+      <c r="C28" s="94"/>
       <c r="D28" s="5" t="s">
         <v>12</v>
       </c>
@@ -7209,7 +7210,7 @@
       </c>
     </row>
     <row r="29" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="90">
+      <c r="C29" s="93">
         <v>18</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -7229,7 +7230,7 @@
       </c>
     </row>
     <row r="30" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="92"/>
+      <c r="C30" s="95"/>
       <c r="D30" s="5" t="s">
         <v>118</v>
       </c>
@@ -7247,7 +7248,7 @@
       </c>
     </row>
     <row r="31" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="92"/>
+      <c r="C31" s="95"/>
       <c r="D31" s="5" t="s">
         <v>118</v>
       </c>
@@ -7265,7 +7266,7 @@
       </c>
     </row>
     <row r="32" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="92"/>
+      <c r="C32" s="95"/>
       <c r="D32" s="5" t="s">
         <v>118</v>
       </c>
@@ -7283,7 +7284,7 @@
       </c>
     </row>
     <row r="33" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="92"/>
+      <c r="C33" s="95"/>
       <c r="D33" s="5" t="s">
         <v>118</v>
       </c>
@@ -7301,7 +7302,7 @@
       </c>
     </row>
     <row r="34" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="92"/>
+      <c r="C34" s="95"/>
       <c r="D34" s="5" t="s">
         <v>118</v>
       </c>
@@ -7319,7 +7320,7 @@
       </c>
     </row>
     <row r="35" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="92"/>
+      <c r="C35" s="95"/>
       <c r="D35" s="5" t="s">
         <v>118</v>
       </c>
@@ -7337,7 +7338,7 @@
       </c>
     </row>
     <row r="36" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="92"/>
+      <c r="C36" s="95"/>
       <c r="D36" s="5" t="s">
         <v>118</v>
       </c>
@@ -7355,7 +7356,7 @@
       </c>
     </row>
     <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="92"/>
+      <c r="C37" s="95"/>
       <c r="D37" s="5" t="s">
         <v>118</v>
       </c>
@@ -7373,7 +7374,7 @@
       </c>
     </row>
     <row r="38" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="92"/>
+      <c r="C38" s="95"/>
       <c r="D38" s="5" t="s">
         <v>118</v>
       </c>
@@ -7391,7 +7392,7 @@
       </c>
     </row>
     <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="92"/>
+      <c r="C39" s="95"/>
       <c r="D39" s="5" t="s">
         <v>118</v>
       </c>
@@ -7409,7 +7410,7 @@
       </c>
     </row>
     <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="92"/>
+      <c r="C40" s="95"/>
       <c r="D40" s="5" t="s">
         <v>118</v>
       </c>
@@ -7427,7 +7428,7 @@
       </c>
     </row>
     <row r="41" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="92"/>
+      <c r="C41" s="95"/>
       <c r="D41" s="5" t="s">
         <v>118</v>
       </c>
@@ -7445,7 +7446,7 @@
       </c>
     </row>
     <row r="42" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="92"/>
+      <c r="C42" s="95"/>
       <c r="D42" s="5" t="s">
         <v>118</v>
       </c>
@@ -7463,7 +7464,7 @@
       </c>
     </row>
     <row r="43" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="92"/>
+      <c r="C43" s="95"/>
       <c r="D43" s="5" t="s">
         <v>118</v>
       </c>
@@ -7481,7 +7482,7 @@
       </c>
     </row>
     <row r="44" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="91"/>
+      <c r="C44" s="94"/>
       <c r="D44" s="5" t="s">
         <v>118</v>
       </c>
@@ -7499,17 +7500,17 @@
       </c>
     </row>
     <row r="47" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="93" t="s">
+      <c r="C47" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="93"/>
-      <c r="H47" s="93"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
     </row>
     <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="90" t="s">
+      <c r="C48" s="93" t="s">
         <v>0</v>
       </c>
       <c r="D48" s="10" t="s">
@@ -7525,7 +7526,7 @@
       </c>
     </row>
     <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="91"/>
+      <c r="C49" s="94"/>
       <c r="D49" s="5" t="s">
         <v>12</v>
       </c>
@@ -7543,7 +7544,7 @@
       </c>
     </row>
     <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="90">
+      <c r="C50" s="93">
         <v>19</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -7563,7 +7564,7 @@
       </c>
     </row>
     <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="97"/>
+      <c r="C51" s="100"/>
       <c r="D51" s="5" t="s">
         <v>118</v>
       </c>
@@ -7581,7 +7582,7 @@
       </c>
     </row>
     <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="97"/>
+      <c r="C52" s="100"/>
       <c r="D52" s="5" t="s">
         <v>118</v>
       </c>
@@ -7599,7 +7600,7 @@
       </c>
     </row>
     <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="97"/>
+      <c r="C53" s="100"/>
       <c r="D53" s="5" t="s">
         <v>118</v>
       </c>
@@ -7617,7 +7618,7 @@
       </c>
     </row>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="97"/>
+      <c r="C54" s="100"/>
       <c r="D54" s="5" t="s">
         <v>118</v>
       </c>
@@ -7635,7 +7636,7 @@
       </c>
     </row>
     <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="97"/>
+      <c r="C55" s="100"/>
       <c r="D55" s="5" t="s">
         <v>118</v>
       </c>
@@ -7653,7 +7654,7 @@
       </c>
     </row>
     <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="97"/>
+      <c r="C56" s="100"/>
       <c r="D56" s="5" t="s">
         <v>118</v>
       </c>
@@ -7671,7 +7672,7 @@
       </c>
     </row>
     <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="97"/>
+      <c r="C57" s="100"/>
       <c r="D57" s="5" t="s">
         <v>118</v>
       </c>
@@ -7689,7 +7690,7 @@
       </c>
     </row>
     <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="97"/>
+      <c r="C58" s="100"/>
       <c r="D58" s="5" t="s">
         <v>118</v>
       </c>
@@ -7707,7 +7708,7 @@
       </c>
     </row>
     <row r="59" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="97"/>
+      <c r="C59" s="100"/>
       <c r="D59" s="5" t="s">
         <v>118</v>
       </c>
@@ -7725,7 +7726,7 @@
       </c>
     </row>
     <row r="60" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="97"/>
+      <c r="C60" s="100"/>
       <c r="D60" s="5" t="s">
         <v>118</v>
       </c>
@@ -7743,7 +7744,7 @@
       </c>
     </row>
     <row r="61" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="98"/>
+      <c r="C61" s="101"/>
       <c r="D61" s="5" t="s">
         <v>118</v>
       </c>
@@ -7763,17 +7764,17 @@
     <row r="62" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="94" t="s">
+      <c r="C64" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="95"/>
-      <c r="E64" s="95"/>
-      <c r="F64" s="95"/>
-      <c r="G64" s="95"/>
-      <c r="H64" s="96"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="98"/>
+      <c r="G64" s="98"/>
+      <c r="H64" s="99"/>
     </row>
     <row r="65" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="90" t="s">
+      <c r="C65" s="93" t="s">
         <v>0</v>
       </c>
       <c r="D65" s="10" t="s">
@@ -7789,7 +7790,7 @@
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C66" s="91"/>
+      <c r="C66" s="94"/>
       <c r="D66" s="5" t="s">
         <v>12</v>
       </c>
@@ -7807,7 +7808,7 @@
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C67" s="90">
+      <c r="C67" s="93">
         <v>19</v>
       </c>
       <c r="D67" s="5" t="s">
@@ -7827,7 +7828,7 @@
       </c>
     </row>
     <row r="68" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="92"/>
+      <c r="C68" s="95"/>
       <c r="D68" s="5" t="s">
         <v>118</v>
       </c>
@@ -7845,7 +7846,7 @@
       </c>
     </row>
     <row r="69" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="92"/>
+      <c r="C69" s="95"/>
       <c r="D69" s="5" t="s">
         <v>118</v>
       </c>
@@ -7863,7 +7864,7 @@
       </c>
     </row>
     <row r="70" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="92"/>
+      <c r="C70" s="95"/>
       <c r="D70" s="5" t="s">
         <v>118</v>
       </c>
@@ -7881,7 +7882,7 @@
       </c>
     </row>
     <row r="71" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="92"/>
+      <c r="C71" s="95"/>
       <c r="D71" s="5" t="s">
         <v>118</v>
       </c>
@@ -7899,7 +7900,7 @@
       </c>
     </row>
     <row r="72" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="92"/>
+      <c r="C72" s="95"/>
       <c r="D72" s="5" t="s">
         <v>118</v>
       </c>
@@ -7917,7 +7918,7 @@
       </c>
     </row>
     <row r="73" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="92"/>
+      <c r="C73" s="95"/>
       <c r="D73" s="5" t="s">
         <v>118</v>
       </c>
@@ -7935,7 +7936,7 @@
       </c>
     </row>
     <row r="74" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="92"/>
+      <c r="C74" s="95"/>
       <c r="D74" s="5" t="s">
         <v>118</v>
       </c>
@@ -7953,7 +7954,7 @@
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="92"/>
+      <c r="C75" s="95"/>
       <c r="D75" s="5" t="s">
         <v>118</v>
       </c>
@@ -7971,7 +7972,7 @@
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="92"/>
+      <c r="C76" s="95"/>
       <c r="D76" s="5" t="s">
         <v>118</v>
       </c>
@@ -7989,7 +7990,7 @@
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="92"/>
+      <c r="C77" s="95"/>
       <c r="D77" s="5" t="s">
         <v>118</v>
       </c>
@@ -8007,7 +8008,7 @@
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="92"/>
+      <c r="C78" s="95"/>
       <c r="D78" s="5" t="s">
         <v>118</v>
       </c>
@@ -8025,7 +8026,7 @@
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="92"/>
+      <c r="C79" s="95"/>
       <c r="D79" s="5" t="s">
         <v>118</v>
       </c>
@@ -8043,7 +8044,7 @@
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="92"/>
+      <c r="C80" s="95"/>
       <c r="D80" s="5" t="s">
         <v>118</v>
       </c>
@@ -8061,7 +8062,7 @@
       </c>
     </row>
     <row r="81" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="92"/>
+      <c r="C81" s="95"/>
       <c r="D81" s="5" t="s">
         <v>118</v>
       </c>
@@ -8079,7 +8080,7 @@
       </c>
     </row>
     <row r="82" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="91"/>
+      <c r="C82" s="94"/>
       <c r="D82" s="5" t="s">
         <v>118</v>
       </c>
@@ -8142,14 +8143,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
     </row>
     <row r="5" spans="3:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
@@ -8278,7 +8279,7 @@
       <c r="D11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="112" t="s">
+      <c r="E11" s="74" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -8298,7 +8299,7 @@
       <c r="D12" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E12" s="112" t="s">
+      <c r="E12" s="74" t="s">
         <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -8893,14 +8894,14 @@
       <c r="H46" s="2"/>
     </row>
     <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="87" t="s">
+      <c r="C50" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="89"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8923,8 +8924,8 @@
   </sheetPr>
   <dimension ref="C8:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8935,25 +8936,25 @@
   </cols>
   <sheetData>
     <row r="8" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="J8" s="93" t="s">
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="J8" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
     </row>
     <row r="9" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="93" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="10">
@@ -8967,7 +8968,7 @@
       <c r="H9" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="J9" s="90" t="s">
+      <c r="J9" s="93" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="10">
@@ -8983,7 +8984,7 @@
       </c>
     </row>
     <row r="10" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="91"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="11" t="s">
         <v>376</v>
       </c>
@@ -8999,7 +9000,7 @@
       <c r="H10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="91"/>
+      <c r="J10" s="94"/>
       <c r="K10" s="21" t="s">
         <v>12</v>
       </c>
@@ -9017,7 +9018,7 @@
       </c>
     </row>
     <row r="11" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="90">
+      <c r="C11" s="93">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -9035,27 +9036,27 @@
       <c r="H11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="90">
+      <c r="J11" s="93">
         <v>7</v>
       </c>
-      <c r="K11" s="114" t="s">
-        <v>118</v>
-      </c>
-      <c r="L11" s="114" t="s">
-        <v>118</v>
-      </c>
-      <c r="M11" s="114" t="s">
-        <v>118</v>
-      </c>
-      <c r="N11" s="114">
+      <c r="K11" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="N11" s="76">
         <v>1</v>
       </c>
-      <c r="O11" s="113" t="s">
+      <c r="O11" s="75" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="12" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="92"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="6" t="s">
         <v>118</v>
       </c>
@@ -9071,7 +9072,7 @@
       <c r="H12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="92"/>
+      <c r="J12" s="95"/>
       <c r="K12" s="5" t="s">
         <v>118</v>
       </c>
@@ -9089,7 +9090,7 @@
       </c>
     </row>
     <row r="13" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="92"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="6" t="s">
         <v>118</v>
       </c>
@@ -9105,7 +9106,7 @@
       <c r="H13" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="J13" s="92"/>
+      <c r="J13" s="95"/>
       <c r="K13" s="5" t="s">
         <v>118</v>
       </c>
@@ -9123,7 +9124,7 @@
       </c>
     </row>
     <row r="14" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="92"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="6" t="s">
         <v>118</v>
       </c>
@@ -9139,7 +9140,7 @@
       <c r="H14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="J14" s="92"/>
+      <c r="J14" s="95"/>
       <c r="K14" s="5" t="s">
         <v>118</v>
       </c>
@@ -9157,7 +9158,7 @@
       </c>
     </row>
     <row r="15" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="92"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="6" t="s">
         <v>118</v>
       </c>
@@ -9173,7 +9174,7 @@
       <c r="H15" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="J15" s="92"/>
+      <c r="J15" s="95"/>
       <c r="K15" s="5" t="s">
         <v>118</v>
       </c>
@@ -9191,7 +9192,7 @@
       </c>
     </row>
     <row r="16" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="92"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="6">
         <v>1</v>
       </c>
@@ -9204,10 +9205,10 @@
       <c r="G16" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="113" t="s">
+      <c r="H16" s="75" t="s">
         <v>381</v>
       </c>
-      <c r="J16" s="92"/>
+      <c r="J16" s="95"/>
       <c r="K16" s="5" t="s">
         <v>118</v>
       </c>
@@ -9225,7 +9226,7 @@
       </c>
     </row>
     <row r="17" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="92"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="5" t="s">
         <v>118</v>
       </c>
@@ -9241,7 +9242,7 @@
       <c r="H17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="92"/>
+      <c r="J17" s="95"/>
       <c r="K17" s="5" t="s">
         <v>118</v>
       </c>
@@ -9259,7 +9260,7 @@
       </c>
     </row>
     <row r="18" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="92"/>
+      <c r="C18" s="95"/>
       <c r="D18" s="5" t="s">
         <v>118</v>
       </c>
@@ -9275,7 +9276,7 @@
       <c r="H18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="92"/>
+      <c r="J18" s="95"/>
       <c r="K18" s="5" t="s">
         <v>118</v>
       </c>
@@ -9293,7 +9294,7 @@
       </c>
     </row>
     <row r="19" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="92"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="5" t="s">
         <v>118</v>
       </c>
@@ -9309,7 +9310,7 @@
       <c r="H19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="92"/>
+      <c r="J19" s="95"/>
       <c r="K19" s="5" t="s">
         <v>118</v>
       </c>
@@ -9327,7 +9328,7 @@
       </c>
     </row>
     <row r="20" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="92"/>
+      <c r="C20" s="95"/>
       <c r="D20" s="5" t="s">
         <v>118</v>
       </c>
@@ -9343,7 +9344,7 @@
       <c r="H20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="92"/>
+      <c r="J20" s="95"/>
       <c r="K20" s="5" t="s">
         <v>118</v>
       </c>
@@ -9361,7 +9362,7 @@
       </c>
     </row>
     <row r="21" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="92"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="5" t="s">
         <v>118</v>
       </c>
@@ -9377,7 +9378,7 @@
       <c r="H21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="92"/>
+      <c r="J21" s="95"/>
       <c r="K21" s="5" t="s">
         <v>118</v>
       </c>
@@ -9395,7 +9396,7 @@
       </c>
     </row>
     <row r="22" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="92"/>
+      <c r="C22" s="95"/>
       <c r="D22" s="5" t="s">
         <v>118</v>
       </c>
@@ -9411,7 +9412,7 @@
       <c r="H22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="92"/>
+      <c r="J22" s="95"/>
       <c r="K22" s="5" t="s">
         <v>118</v>
       </c>
@@ -9429,7 +9430,7 @@
       </c>
     </row>
     <row r="23" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="92"/>
+      <c r="C23" s="95"/>
       <c r="D23" s="5" t="s">
         <v>118</v>
       </c>
@@ -9445,7 +9446,7 @@
       <c r="H23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="92"/>
+      <c r="J23" s="95"/>
       <c r="K23" s="5" t="s">
         <v>118</v>
       </c>
@@ -9463,7 +9464,7 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="92"/>
+      <c r="C24" s="95"/>
       <c r="D24" s="5" t="s">
         <v>118</v>
       </c>
@@ -9479,7 +9480,7 @@
       <c r="H24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="92"/>
+      <c r="J24" s="95"/>
       <c r="K24" s="5" t="s">
         <v>118</v>
       </c>
@@ -9497,7 +9498,7 @@
       </c>
     </row>
     <row r="25" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="92"/>
+      <c r="C25" s="95"/>
       <c r="D25" s="5" t="s">
         <v>118</v>
       </c>
@@ -9513,7 +9514,7 @@
       <c r="H25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="92"/>
+      <c r="J25" s="95"/>
       <c r="K25" s="5" t="s">
         <v>118</v>
       </c>
@@ -9531,7 +9532,7 @@
       </c>
     </row>
     <row r="26" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="91"/>
+      <c r="C26" s="94"/>
       <c r="D26" s="5" t="s">
         <v>118</v>
       </c>
@@ -9547,7 +9548,7 @@
       <c r="H26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="91"/>
+      <c r="J26" s="94"/>
       <c r="K26" s="5" t="s">
         <v>118</v>
       </c>
@@ -9565,25 +9566,25 @@
       </c>
     </row>
     <row r="30" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="93" t="s">
+      <c r="C30" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="J30" s="93" t="s">
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="J30" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="96"/>
     </row>
     <row r="31" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="90" t="s">
+      <c r="C31" s="93" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="10">
@@ -9597,7 +9598,7 @@
       <c r="H31" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="J31" s="90" t="s">
+      <c r="J31" s="93" t="s">
         <v>0</v>
       </c>
       <c r="K31" s="10">
@@ -9613,7 +9614,7 @@
       </c>
     </row>
     <row r="32" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="91"/>
+      <c r="C32" s="94"/>
       <c r="D32" s="5" t="s">
         <v>12</v>
       </c>
@@ -9629,7 +9630,7 @@
       <c r="H32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="91"/>
+      <c r="J32" s="94"/>
       <c r="K32" s="21" t="s">
         <v>12</v>
       </c>
@@ -9647,7 +9648,7 @@
       </c>
     </row>
     <row r="33" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="90">
+      <c r="C33" s="93">
         <v>8</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -9665,7 +9666,7 @@
       <c r="H33" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="J33" s="90">
+      <c r="J33" s="93">
         <v>8</v>
       </c>
       <c r="K33" s="5" t="s">
@@ -9685,7 +9686,7 @@
       </c>
     </row>
     <row r="34" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="92"/>
+      <c r="C34" s="95"/>
       <c r="D34" s="5" t="s">
         <v>118</v>
       </c>
@@ -9701,7 +9702,7 @@
       <c r="H34" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="J34" s="92"/>
+      <c r="J34" s="95"/>
       <c r="K34" s="5" t="s">
         <v>118</v>
       </c>
@@ -9719,7 +9720,7 @@
       </c>
     </row>
     <row r="35" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="92"/>
+      <c r="C35" s="95"/>
       <c r="D35" s="5" t="s">
         <v>118</v>
       </c>
@@ -9735,7 +9736,7 @@
       <c r="H35" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="J35" s="92"/>
+      <c r="J35" s="95"/>
       <c r="K35" s="5" t="s">
         <v>118</v>
       </c>
@@ -9753,7 +9754,7 @@
       </c>
     </row>
     <row r="36" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="92"/>
+      <c r="C36" s="95"/>
       <c r="D36" s="5" t="s">
         <v>118</v>
       </c>
@@ -9769,7 +9770,7 @@
       <c r="H36" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="J36" s="92"/>
+      <c r="J36" s="95"/>
       <c r="K36" s="5" t="s">
         <v>118</v>
       </c>
@@ -9787,7 +9788,7 @@
       </c>
     </row>
     <row r="37" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="92"/>
+      <c r="C37" s="95"/>
       <c r="D37" s="5" t="s">
         <v>118</v>
       </c>
@@ -9803,7 +9804,7 @@
       <c r="H37" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="92"/>
+      <c r="J37" s="95"/>
       <c r="K37" s="5" t="s">
         <v>118</v>
       </c>
@@ -9821,7 +9822,7 @@
       </c>
     </row>
     <row r="38" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="92"/>
+      <c r="C38" s="95"/>
       <c r="D38" s="5" t="s">
         <v>118</v>
       </c>
@@ -9837,7 +9838,7 @@
       <c r="H38" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J38" s="92"/>
+      <c r="J38" s="95"/>
       <c r="K38" s="5" t="s">
         <v>118</v>
       </c>
@@ -9855,7 +9856,7 @@
       </c>
     </row>
     <row r="39" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="92"/>
+      <c r="C39" s="95"/>
       <c r="D39" s="5" t="s">
         <v>118</v>
       </c>
@@ -9871,7 +9872,7 @@
       <c r="H39" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J39" s="92"/>
+      <c r="J39" s="95"/>
       <c r="K39" s="5" t="s">
         <v>118</v>
       </c>
@@ -9889,7 +9890,7 @@
       </c>
     </row>
     <row r="40" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="92"/>
+      <c r="C40" s="95"/>
       <c r="D40" s="5" t="s">
         <v>118</v>
       </c>
@@ -9905,7 +9906,7 @@
       <c r="H40" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J40" s="92"/>
+      <c r="J40" s="95"/>
       <c r="K40" s="5" t="s">
         <v>118</v>
       </c>
@@ -9923,7 +9924,7 @@
       </c>
     </row>
     <row r="41" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="92"/>
+      <c r="C41" s="95"/>
       <c r="D41" s="5" t="s">
         <v>118</v>
       </c>
@@ -9939,7 +9940,7 @@
       <c r="H41" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J41" s="92"/>
+      <c r="J41" s="95"/>
       <c r="K41" s="5" t="s">
         <v>118</v>
       </c>
@@ -9957,7 +9958,7 @@
       </c>
     </row>
     <row r="42" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="92"/>
+      <c r="C42" s="95"/>
       <c r="D42" s="5" t="s">
         <v>118</v>
       </c>
@@ -9973,7 +9974,7 @@
       <c r="H42" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="92"/>
+      <c r="J42" s="95"/>
       <c r="K42" s="5" t="s">
         <v>118</v>
       </c>
@@ -9991,7 +9992,7 @@
       </c>
     </row>
     <row r="43" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="92"/>
+      <c r="C43" s="95"/>
       <c r="D43" s="5" t="s">
         <v>118</v>
       </c>
@@ -10007,7 +10008,7 @@
       <c r="H43" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J43" s="92"/>
+      <c r="J43" s="95"/>
       <c r="K43" s="5" t="s">
         <v>118</v>
       </c>
@@ -10025,7 +10026,7 @@
       </c>
     </row>
     <row r="44" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="92"/>
+      <c r="C44" s="95"/>
       <c r="D44" s="5" t="s">
         <v>118</v>
       </c>
@@ -10041,7 +10042,7 @@
       <c r="H44" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="92"/>
+      <c r="J44" s="95"/>
       <c r="K44" s="5" t="s">
         <v>118</v>
       </c>
@@ -10059,7 +10060,7 @@
       </c>
     </row>
     <row r="45" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="92"/>
+      <c r="C45" s="95"/>
       <c r="D45" s="5" t="s">
         <v>118</v>
       </c>
@@ -10075,7 +10076,7 @@
       <c r="H45" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J45" s="92"/>
+      <c r="J45" s="95"/>
       <c r="K45" s="5" t="s">
         <v>118</v>
       </c>
@@ -10093,7 +10094,7 @@
       </c>
     </row>
     <row r="46" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="92"/>
+      <c r="C46" s="95"/>
       <c r="D46" s="5" t="s">
         <v>118</v>
       </c>
@@ -10109,7 +10110,7 @@
       <c r="H46" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J46" s="92"/>
+      <c r="J46" s="95"/>
       <c r="K46" s="5" t="s">
         <v>118</v>
       </c>
@@ -10127,7 +10128,7 @@
       </c>
     </row>
     <row r="47" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="92"/>
+      <c r="C47" s="95"/>
       <c r="D47" s="5" t="s">
         <v>118</v>
       </c>
@@ -10143,7 +10144,7 @@
       <c r="H47" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J47" s="92"/>
+      <c r="J47" s="95"/>
       <c r="K47" s="5" t="s">
         <v>118</v>
       </c>
@@ -10161,7 +10162,7 @@
       </c>
     </row>
     <row r="48" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="91"/>
+      <c r="C48" s="94"/>
       <c r="D48" s="5" t="s">
         <v>118</v>
       </c>
@@ -10177,7 +10178,7 @@
       <c r="H48" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J48" s="91"/>
+      <c r="J48" s="94"/>
       <c r="K48" s="5" t="s">
         <v>118</v>
       </c>
@@ -10240,18 +10241,18 @@
     <row r="96" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J33:J48"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C48"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="J31:J32"/>
     <mergeCell ref="J11:J26"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C26"/>
     <mergeCell ref="J8:O8"/>
     <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J33:J48"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C48"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="J31:J32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -10279,14 +10280,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
     </row>
     <row r="5" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
@@ -10452,14 +10453,14 @@
       <c r="H17" s="2"/>
     </row>
     <row r="20" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="89"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="2">
